--- a/Pixiv.xlsx
+++ b/Pixiv.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Messiah/Documents/Python/Painter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/Projects/Python/Pixiv_Artists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D19DF-2B07-564D-A77C-2214211ACE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D7F83-1966-A540-89F5-630C9BCAACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作者信息" sheetId="3" r:id="rId1"/>
     <sheet name="备份" sheetId="2" r:id="rId2"/>
+    <sheet name="备份2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>作者名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,40 +86,58 @@
     <t>モ誰</t>
   </si>
   <si>
+    <t>Lifeline</t>
+  </si>
+  <si>
+    <t>void_0</t>
+  </si>
+  <si>
+    <t>Novelance</t>
+  </si>
+  <si>
+    <t>紺屋鴉江</t>
+  </si>
+  <si>
+    <t>千夜QYS3</t>
+  </si>
+  <si>
+    <t>てんてこ</t>
+  </si>
+  <si>
+    <t>芹江ニ愛</t>
+  </si>
+  <si>
+    <t>卜卜</t>
+  </si>
+  <si>
+    <t>作者名</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
     <t>赤倉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米山舞</t>
+  </si>
+  <si>
+    <t>fuwa</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>まごつき</t>
+  </si>
+  <si>
+    <t>XilmO@夕末</t>
   </si>
   <si>
     <t>Saclia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifeline</t>
-  </si>
-  <si>
-    <t>void_0</t>
-  </si>
-  <si>
-    <t>Novelance</t>
-  </si>
-  <si>
-    <t>紺屋鴉江</t>
-  </si>
-  <si>
-    <t>千夜QYS3</t>
-  </si>
-  <si>
-    <t>てんてこ</t>
-  </si>
-  <si>
-    <t>芹江ニ愛</t>
-  </si>
-  <si>
-    <t>卜卜</t>
-  </si>
-  <si>
-    <t>fuwa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potg（ぴおてぐ）</t>
   </si>
 </sst>
 </file>
@@ -151,7 +170,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -180,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,7 +209,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,193 +532,194 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
         <v>882569</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1039353</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1499614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
         <v>1554775</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1878082</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
         <v>2156906</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
         <v>2455604</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
         <v>4819066</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
         <v>5472279</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7210261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10109777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10710834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10885193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>7210261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>10109777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>10710834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>10885193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>11440557</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>14801956</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>16183476</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
         <v>19389056</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
         <v>19920821</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>41397813</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
         <v>62834074</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>66807813</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
-    <sortCondition ref="B2:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
+    <sortCondition ref="B2:B4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -705,7 +728,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="16"/>
@@ -801,4 +824,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABD38A4-9B5F-D747-984F-3F5444EB3AB1}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <v>882569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1039353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1499614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1554775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1878082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2156906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2455604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4819066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5472279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7210261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10109777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10710834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10885193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11440557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14801956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16183476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19389056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19920821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41397813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>62834074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>66807813</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>